--- a/data/trans_orig/P38A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA68AEED-A785-42E1-919D-A6B135D12FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9B74EF-68BD-4064-BA4E-F7D99AF10E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABBC0A45-AC34-4892-AD05-AF8EEBF9F3ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F74282-FD00-4E38-98FC-7F0AC6D93952}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,583 +139,589 @@
     <t>81,4%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>86,33%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>82,37%</t>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B54E21-14FD-447F-B568-6105FAE74A55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAA4F1-1C73-4BC2-B333-D62D4AF6D181}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1749,10 +1755,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1773,13 @@
         <v>500113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -1782,13 +1788,13 @@
         <v>366329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -1797,13 +1803,13 @@
         <v>866442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE326D3-9B48-4F68-9E69-3B67DAF00E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD92984-CFCF-46E7-93E3-DEBB57BA12A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2002,13 +2008,13 @@
         <v>674705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>839</v>
@@ -2017,13 +2023,13 @@
         <v>939860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1523</v>
@@ -2032,13 +2038,13 @@
         <v>1614564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2059,13 @@
         <v>77591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -2068,13 +2074,13 @@
         <v>53927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
@@ -2083,13 +2089,13 @@
         <v>131519</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2163,13 @@
         <v>1668062</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1660</v>
@@ -2172,13 +2178,13 @@
         <v>1741596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3235</v>
@@ -2187,13 +2193,13 @@
         <v>3409658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2214,13 @@
         <v>389534</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -2223,13 +2229,13 @@
         <v>239732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>603</v>
@@ -2238,13 +2244,13 @@
         <v>629266</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2318,13 @@
         <v>458750</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>460</v>
@@ -2327,13 +2333,13 @@
         <v>482287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
@@ -2342,13 +2348,13 @@
         <v>941037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2369,13 @@
         <v>84336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -2378,13 +2384,13 @@
         <v>64802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -2393,13 +2399,13 @@
         <v>149138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2473,13 @@
         <v>2801517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>2959</v>
@@ -2482,13 +2488,13 @@
         <v>3163742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>5637</v>
@@ -2497,13 +2503,13 @@
         <v>5965259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2524,13 @@
         <v>551461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -2533,13 +2539,13 @@
         <v>358462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -2548,13 +2554,13 @@
         <v>909924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC5EEDE-791A-4040-9181-1ABE7B9CD1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50383E1E-E26F-432C-8B8D-10301053BF32}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2753,13 +2759,13 @@
         <v>488579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>1365</v>
@@ -2768,13 +2774,13 @@
         <v>785798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>1997</v>
@@ -2783,13 +2789,13 @@
         <v>1274376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2810,13 @@
         <v>53055</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2819,13 +2825,13 @@
         <v>50155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>121</v>
@@ -2834,13 +2840,13 @@
         <v>103210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,28 +2914,28 @@
         <v>1688854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>2625</v>
       </c>
       <c r="I7" s="7">
-        <v>1935126</v>
+        <v>1935127</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>4325</v>
@@ -2938,13 +2944,13 @@
         <v>3623981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2965,13 @@
         <v>473168</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -2974,13 +2980,13 @@
         <v>314394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>588</v>
@@ -2989,13 +2995,13 @@
         <v>787562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3028,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3063,13 +3069,13 @@
         <v>592268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7">
         <v>927</v>
@@ -3078,13 +3084,13 @@
         <v>641404</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>1537</v>
@@ -3093,13 +3099,13 @@
         <v>1233673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3120,13 @@
         <v>80771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3129,13 +3135,13 @@
         <v>72482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -3144,13 +3150,13 @@
         <v>153253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,16 +3221,16 @@
         <v>2942</v>
       </c>
       <c r="D13" s="7">
-        <v>2769701</v>
+        <v>2769700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>4917</v>
@@ -3233,28 +3239,28 @@
         <v>3362329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>7859</v>
       </c>
       <c r="N13" s="7">
-        <v>6132030</v>
+        <v>6132029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3275,13 @@
         <v>606994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>435</v>
@@ -3284,13 +3290,13 @@
         <v>437031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>857</v>
@@ -3299,13 +3305,13 @@
         <v>1044025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3323,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3353,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9B74EF-68BD-4064-BA4E-F7D99AF10E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{347DFB08-2DF6-401B-AE8B-83663ED4207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F74282-FD00-4E38-98FC-7F0AC6D93952}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25BC7765-7A72-4C93-BCD7-E613F4329F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,637 +76,655 @@
     <t>90,82%</t>
   </si>
   <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2015 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -1133,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAA4F1-1C73-4BC2-B333-D62D4AF6D181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7E52F-7322-4CB6-A438-10AA74A961F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1884,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD92984-CFCF-46E7-93E3-DEBB57BA12A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2384DC-F432-4FE4-B1F4-3B4A62B2CF40}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2339,7 +2357,7 @@
         <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
@@ -2348,13 +2366,13 @@
         <v>941037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2387,13 @@
         <v>84336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -2384,13 +2402,13 @@
         <v>64802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -2399,13 +2417,13 @@
         <v>149138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2491,13 @@
         <v>2801517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2959</v>
@@ -2488,13 +2506,13 @@
         <v>3163742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>5637</v>
@@ -2503,13 +2521,13 @@
         <v>5965259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2542,13 @@
         <v>551461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -2539,28 +2557,28 @@
         <v>358462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
       </c>
       <c r="N14" s="7">
-        <v>909924</v>
+        <v>909923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2620,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6875183</v>
+        <v>6875182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2635,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50383E1E-E26F-432C-8B8D-10301053BF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A9413-845D-4795-AC29-9803494CC158}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2777,13 @@
         <v>488579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>1365</v>
@@ -2774,13 +2792,13 @@
         <v>785798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1997</v>
@@ -2789,13 +2807,13 @@
         <v>1274376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2828,13 @@
         <v>53055</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2825,13 +2843,13 @@
         <v>50155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>121</v>
@@ -2840,13 +2858,13 @@
         <v>103210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2932,13 @@
         <v>1688854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>2625</v>
@@ -2929,13 +2947,13 @@
         <v>1935127</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>4325</v>
@@ -2944,13 +2962,13 @@
         <v>3623981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2983,13 @@
         <v>473168</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -2980,13 +2998,13 @@
         <v>314394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>588</v>
@@ -2995,13 +3013,13 @@
         <v>787562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3087,13 @@
         <v>592268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>927</v>
@@ -3084,13 +3102,13 @@
         <v>641404</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>1537</v>
@@ -3099,13 +3117,13 @@
         <v>1233673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3138,13 @@
         <v>80771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3135,13 +3153,13 @@
         <v>72482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -3150,13 +3168,13 @@
         <v>153253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3242,13 @@
         <v>2769700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>4917</v>
@@ -3239,13 +3257,13 @@
         <v>3362329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>7859</v>
@@ -3254,13 +3272,13 @@
         <v>6132029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3293,13 @@
         <v>606994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>435</v>
@@ -3290,13 +3308,13 @@
         <v>437031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>857</v>
@@ -3305,13 +3323,13 @@
         <v>1044025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347DFB08-2DF6-401B-AE8B-83663ED4207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04D427C-3B4A-42B9-8EA5-BB700E8F9EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25BC7765-7A72-4C93-BCD7-E613F4329F7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B84553-437E-4562-950E-1527CA9AFEAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -70,676 +70,652 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>92,8%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2016 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7E52F-7322-4CB6-A438-10AA74A961F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D71DD9-D88E-4468-B72D-CA6A98B9F522}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1773,10 +1749,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1767,13 @@
         <v>500113</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -1806,13 +1782,13 @@
         <v>366329</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -1821,13 +1797,13 @@
         <v>866442</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2384DC-F432-4FE4-B1F4-3B4A62B2CF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C660D8-5996-4FBD-9530-6F434CE64C27}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1919,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2026,13 +2002,13 @@
         <v>674705</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>839</v>
@@ -2041,13 +2017,13 @@
         <v>939860</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1523</v>
@@ -2056,13 +2032,13 @@
         <v>1614564</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2053,13 @@
         <v>77591</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -2092,13 +2068,13 @@
         <v>53927</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
@@ -2107,13 +2083,13 @@
         <v>131519</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2157,13 @@
         <v>1668062</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1660</v>
@@ -2196,13 +2172,13 @@
         <v>1741596</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3235</v>
@@ -2211,13 +2187,13 @@
         <v>3409658</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2208,13 @@
         <v>389534</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -2247,13 +2223,13 @@
         <v>239732</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>603</v>
@@ -2262,13 +2238,13 @@
         <v>629266</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2312,13 @@
         <v>458750</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>460</v>
@@ -2351,13 +2327,13 @@
         <v>482287</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
@@ -2366,13 +2342,13 @@
         <v>941037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2363,13 @@
         <v>84336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -2402,13 +2378,13 @@
         <v>64802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -2417,13 +2393,13 @@
         <v>149138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2467,13 @@
         <v>2801517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>2959</v>
@@ -2506,13 +2482,13 @@
         <v>3163742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>5637</v>
@@ -2521,13 +2497,13 @@
         <v>5965259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2518,13 @@
         <v>551461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -2557,28 +2533,28 @@
         <v>358462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
       </c>
       <c r="N14" s="7">
-        <v>909923</v>
+        <v>909924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2596,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6875182</v>
+        <v>6875183</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2634,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A9413-845D-4795-AC29-9803494CC158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB728DF4-4734-44D0-8BF5-EBEDD04A2317}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2753,13 @@
         <v>488579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>1365</v>
@@ -2792,13 +2768,13 @@
         <v>785798</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>1997</v>
@@ -2807,13 +2783,13 @@
         <v>1274376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2804,13 @@
         <v>53055</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2843,13 +2819,13 @@
         <v>50155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>121</v>
@@ -2858,13 +2834,13 @@
         <v>103210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,28 +2908,28 @@
         <v>1688854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>2625</v>
       </c>
       <c r="I7" s="7">
-        <v>1935127</v>
+        <v>1935126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>4325</v>
@@ -2962,13 +2938,13 @@
         <v>3623981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2959,13 @@
         <v>473168</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -2998,13 +2974,13 @@
         <v>314394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>588</v>
@@ -3013,13 +2989,13 @@
         <v>787562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3022,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3087,13 +3063,13 @@
         <v>592268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>927</v>
@@ -3102,13 +3078,13 @@
         <v>641404</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>1537</v>
@@ -3117,13 +3093,13 @@
         <v>1233673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3114,13 @@
         <v>80771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3153,13 +3129,13 @@
         <v>72482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -3168,13 +3144,13 @@
         <v>153253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,16 +3215,16 @@
         <v>2942</v>
       </c>
       <c r="D13" s="7">
-        <v>2769700</v>
+        <v>2769701</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>4917</v>
@@ -3257,28 +3233,28 @@
         <v>3362329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>7859</v>
       </c>
       <c r="N13" s="7">
-        <v>6132029</v>
+        <v>6132030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3269,13 @@
         <v>606994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>435</v>
@@ -3308,13 +3284,13 @@
         <v>437031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>857</v>
@@ -3323,13 +3299,13 @@
         <v>1044025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3317,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3371,7 +3347,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3385,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P38A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04D427C-3B4A-42B9-8EA5-BB700E8F9EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB8A0BD-55F4-4A94-A610-B341AE141056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B84553-437E-4562-950E-1527CA9AFEAA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E52AED8A-29CA-480B-A941-B1A30DF8EF17}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -514,208 +514,202 @@
     <t>Población según si le han tomado la tensión alguna vez un/a profesional sanitario/a en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D71DD9-D88E-4468-B72D-CA6A98B9F522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B40D4D9-0EE0-452E-9F8E-1460ABDBCA1D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C660D8-5996-4FBD-9530-6F434CE64C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D603854-BB33-4683-A087-C24DAB2932B8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB728DF4-4734-44D0-8BF5-EBEDD04A2317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D19843-75A5-4DB9-A564-22665EB145F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2750,13 +2744,13 @@
         <v>632</v>
       </c>
       <c r="D4" s="7">
-        <v>488579</v>
+        <v>466061</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>159</v>
@@ -2765,7 +2759,7 @@
         <v>1365</v>
       </c>
       <c r="I4" s="7">
-        <v>785798</v>
+        <v>712287</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>160</v>
@@ -2780,7 +2774,7 @@
         <v>1997</v>
       </c>
       <c r="N4" s="7">
-        <v>1274376</v>
+        <v>1178348</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>163</v>
@@ -2789,7 +2783,7 @@
         <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,46 +2795,46 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>53055</v>
+        <v>48877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>50155</v>
+        <v>43221</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>121</v>
       </c>
       <c r="N5" s="7">
-        <v>103210</v>
+        <v>92098</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2861,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2882,7 +2876,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2905,46 +2899,46 @@
         <v>1700</v>
       </c>
       <c r="D7" s="7">
-        <v>1688854</v>
+        <v>1645547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>2625</v>
       </c>
       <c r="I7" s="7">
-        <v>1935126</v>
+        <v>1915741</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>4325</v>
       </c>
       <c r="N7" s="7">
-        <v>3623981</v>
+        <v>3561287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2950,7 @@
         <v>292</v>
       </c>
       <c r="D8" s="7">
-        <v>473168</v>
+        <v>644780</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>181</v>
@@ -2971,31 +2965,31 @@
         <v>296</v>
       </c>
       <c r="I8" s="7">
-        <v>314394</v>
+        <v>322082</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>588</v>
       </c>
       <c r="N8" s="7">
-        <v>787562</v>
+        <v>966863</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +3001,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3022,7 +3016,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3037,7 +3031,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3060,46 +3054,46 @@
         <v>610</v>
       </c>
       <c r="D10" s="7">
-        <v>592268</v>
+        <v>569022</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>927</v>
       </c>
       <c r="I10" s="7">
-        <v>641404</v>
+        <v>596392</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>1537</v>
       </c>
       <c r="N10" s="7">
-        <v>1233673</v>
+        <v>1165414</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,46 +3105,46 @@
         <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>80771</v>
+        <v>77601</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>72482</v>
+        <v>64071</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
       </c>
       <c r="N11" s="7">
-        <v>153253</v>
+        <v>141672</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,7 +3156,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3171,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3192,7 +3186,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3215,46 +3209,46 @@
         <v>2942</v>
       </c>
       <c r="D13" s="7">
-        <v>2769701</v>
+        <v>2680630</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>4917</v>
       </c>
       <c r="I13" s="7">
-        <v>3362329</v>
+        <v>3224420</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>7859</v>
       </c>
       <c r="N13" s="7">
-        <v>6132030</v>
+        <v>5905050</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,46 +3260,46 @@
         <v>422</v>
       </c>
       <c r="D14" s="7">
-        <v>606994</v>
+        <v>771259</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>435</v>
       </c>
       <c r="I14" s="7">
-        <v>437031</v>
+        <v>429374</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>857</v>
       </c>
       <c r="N14" s="7">
-        <v>1044025</v>
+        <v>1200633</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3311,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3332,7 +3326,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3341,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
